--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Boc</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H2">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I2">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J2">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.32845432977671</v>
+        <v>2.365025333333333</v>
       </c>
       <c r="N2">
-        <v>2.32845432977671</v>
+        <v>7.095076</v>
       </c>
       <c r="O2">
-        <v>0.08191989532296871</v>
+        <v>0.08002875138860945</v>
       </c>
       <c r="P2">
-        <v>0.08191989532296871</v>
+        <v>0.08507379014075958</v>
       </c>
       <c r="Q2">
-        <v>4.355583738809372</v>
+        <v>6.145512810274222</v>
       </c>
       <c r="R2">
-        <v>4.355583738809372</v>
+        <v>55.309615292468</v>
       </c>
       <c r="S2">
-        <v>0.04473333517648572</v>
+        <v>0.03981824556646039</v>
       </c>
       <c r="T2">
-        <v>0.04473333517648572</v>
+        <v>0.04662601293618356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H3">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I3">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J3">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.9616560116181</v>
+        <v>21.82634733333333</v>
       </c>
       <c r="N3">
-        <v>20.9616560116181</v>
+        <v>65.47904199999999</v>
       </c>
       <c r="O3">
-        <v>0.7374749181498884</v>
+        <v>0.7385693928271264</v>
       </c>
       <c r="P3">
-        <v>0.7374749181498884</v>
+        <v>0.7851290497418185</v>
       </c>
       <c r="Q3">
-        <v>39.21066730627045</v>
+        <v>56.71571261752288</v>
       </c>
       <c r="R3">
-        <v>39.21066730627045</v>
+        <v>510.441413557706</v>
       </c>
       <c r="S3">
-        <v>0.4027069684084504</v>
+        <v>0.3674746505622454</v>
       </c>
       <c r="T3">
-        <v>0.4027069684084504</v>
+        <v>0.4303021784884203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H4">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I4">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J4">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.13344074588127</v>
+        <v>0.08121533333333333</v>
       </c>
       <c r="N4">
-        <v>5.13344074588127</v>
+        <v>0.243646</v>
       </c>
       <c r="O4">
-        <v>0.1806051865271428</v>
+        <v>0.002748199619120238</v>
       </c>
       <c r="P4">
-        <v>0.1806051865271428</v>
+        <v>0.002921447025040396</v>
       </c>
       <c r="Q4">
-        <v>9.60256370544578</v>
+        <v>0.2110378541642222</v>
       </c>
       <c r="R4">
-        <v>9.60256370544578</v>
+        <v>1.899340687478</v>
       </c>
       <c r="S4">
-        <v>0.09862161458677049</v>
+        <v>0.001367364670834507</v>
       </c>
       <c r="T4">
-        <v>0.09862161458677049</v>
+        <v>0.001601144448325766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.160111037348424</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H5">
-        <v>0.160111037348424</v>
+        <v>7.795493</v>
       </c>
       <c r="I5">
-        <v>0.0467395490554178</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J5">
-        <v>0.0467395490554178</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.32845432977671</v>
+        <v>0.02210233333333333</v>
       </c>
       <c r="N5">
-        <v>2.32845432977671</v>
+        <v>0.066307</v>
       </c>
       <c r="O5">
-        <v>0.08191989532296871</v>
+        <v>0.0007479083266091199</v>
       </c>
       <c r="P5">
-        <v>0.08191989532296871</v>
+        <v>0.0007950567129743708</v>
       </c>
       <c r="Q5">
-        <v>0.3728112381589784</v>
+        <v>0.05743286159455557</v>
       </c>
       <c r="R5">
-        <v>0.3728112381589784</v>
+        <v>0.5168957543510001</v>
       </c>
       <c r="S5">
-        <v>0.003828898966062587</v>
+        <v>0.0003721212301003245</v>
       </c>
       <c r="T5">
-        <v>0.003828898966062587</v>
+        <v>0.0004357431886225777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.160111037348424</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H6">
-        <v>0.160111037348424</v>
+        <v>7.795493</v>
       </c>
       <c r="I6">
-        <v>0.0467395490554178</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J6">
-        <v>0.0467395490554178</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.9616560116181</v>
+        <v>5.257505500000001</v>
       </c>
       <c r="N6">
-        <v>20.9616560116181</v>
+        <v>10.515011</v>
       </c>
       <c r="O6">
-        <v>0.7374749181498884</v>
+        <v>0.1779057478385349</v>
       </c>
       <c r="P6">
-        <v>0.7374749181498884</v>
+        <v>0.1260806563794072</v>
       </c>
       <c r="Q6">
-        <v>3.356192488561002</v>
+        <v>13.66161577423717</v>
       </c>
       <c r="R6">
-        <v>3.356192488561002</v>
+        <v>81.96969464542302</v>
       </c>
       <c r="S6">
-        <v>0.03446924511400694</v>
+        <v>0.08851687215162299</v>
       </c>
       <c r="T6">
-        <v>0.03446924511400694</v>
+        <v>0.06910046332274843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H7">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I7">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J7">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.13344074588127</v>
+        <v>2.365025333333333</v>
       </c>
       <c r="N7">
-        <v>5.13344074588127</v>
+        <v>7.095076</v>
       </c>
       <c r="O7">
-        <v>0.1806051865271428</v>
+        <v>0.08002875138860945</v>
       </c>
       <c r="P7">
-        <v>0.1806051865271428</v>
+        <v>0.08507379014075958</v>
       </c>
       <c r="Q7">
-        <v>0.8219205229897175</v>
+        <v>2.088414335372</v>
       </c>
       <c r="R7">
-        <v>0.8219205229897175</v>
+        <v>18.795729018348</v>
       </c>
       <c r="S7">
-        <v>0.008441404975348274</v>
+        <v>0.01353133536900851</v>
       </c>
       <c r="T7">
-        <v>0.008441404975348274</v>
+        <v>0.01584480202439299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.39489962583334</v>
+        <v>0.883041</v>
       </c>
       <c r="H8">
-        <v>1.39489962583334</v>
+        <v>2.649123</v>
       </c>
       <c r="I8">
-        <v>0.4071985327728755</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J8">
-        <v>0.4071985327728755</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.32845432977671</v>
+        <v>21.82634733333333</v>
       </c>
       <c r="N8">
-        <v>2.32845432977671</v>
+        <v>65.47904199999999</v>
       </c>
       <c r="O8">
-        <v>0.08191989532296871</v>
+        <v>0.7385693928271264</v>
       </c>
       <c r="P8">
-        <v>0.08191989532296871</v>
+        <v>0.7851290497418185</v>
       </c>
       <c r="Q8">
-        <v>3.247960073375553</v>
+        <v>19.273559575574</v>
       </c>
       <c r="R8">
-        <v>3.247960073375553</v>
+        <v>173.462036180166</v>
       </c>
       <c r="S8">
-        <v>0.03335766118042041</v>
+        <v>0.1248779966477306</v>
       </c>
       <c r="T8">
-        <v>0.03335766118042041</v>
+        <v>0.1462285192205008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.39489962583334</v>
+        <v>0.883041</v>
       </c>
       <c r="H9">
-        <v>1.39489962583334</v>
+        <v>2.649123</v>
       </c>
       <c r="I9">
-        <v>0.4071985327728755</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J9">
-        <v>0.4071985327728755</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>20.9616560116181</v>
+        <v>0.08121533333333333</v>
       </c>
       <c r="N9">
-        <v>20.9616560116181</v>
+        <v>0.243646</v>
       </c>
       <c r="O9">
-        <v>0.7374749181498884</v>
+        <v>0.002748199619120238</v>
       </c>
       <c r="P9">
-        <v>0.7374749181498884</v>
+        <v>0.002921447025040396</v>
       </c>
       <c r="Q9">
-        <v>29.23940612745327</v>
+        <v>0.071716469162</v>
       </c>
       <c r="R9">
-        <v>29.23940612745327</v>
+        <v>0.6454482224579999</v>
       </c>
       <c r="S9">
-        <v>0.300298704627431</v>
+        <v>0.0004646681356644309</v>
       </c>
       <c r="T9">
-        <v>0.300298704627431</v>
+        <v>0.0005441129360749985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.883041</v>
+      </c>
+      <c r="H10">
+        <v>2.649123</v>
+      </c>
+      <c r="I10">
+        <v>0.1690809257200836</v>
+      </c>
+      <c r="J10">
+        <v>0.1862477503138962</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02210233333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.066307</v>
+      </c>
+      <c r="O10">
+        <v>0.0007479083266091199</v>
+      </c>
+      <c r="P10">
+        <v>0.0007950567129743708</v>
+      </c>
+      <c r="Q10">
+        <v>0.019517266529</v>
+      </c>
+      <c r="R10">
+        <v>0.175655398761</v>
+      </c>
+      <c r="S10">
+        <v>0.0001264570322168286</v>
+      </c>
+      <c r="T10">
+        <v>0.0001480775241634376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.883041</v>
+      </c>
+      <c r="H11">
+        <v>2.649123</v>
+      </c>
+      <c r="I11">
+        <v>0.1690809257200836</v>
+      </c>
+      <c r="J11">
+        <v>0.1862477503138962</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.257505500000001</v>
+      </c>
+      <c r="N11">
+        <v>10.515011</v>
+      </c>
+      <c r="O11">
+        <v>0.1779057478385349</v>
+      </c>
+      <c r="P11">
+        <v>0.1260806563794072</v>
+      </c>
+      <c r="Q11">
+        <v>4.6425929142255</v>
+      </c>
+      <c r="R11">
+        <v>27.855557485353</v>
+      </c>
+      <c r="S11">
+        <v>0.03008046853546324</v>
+      </c>
+      <c r="T11">
+        <v>0.02348223860876397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.255631</v>
+      </c>
+      <c r="H12">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J12">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.365025333333333</v>
+      </c>
+      <c r="N12">
+        <v>7.095076</v>
+      </c>
+      <c r="O12">
+        <v>0.08002875138860945</v>
+      </c>
+      <c r="P12">
+        <v>0.08507379014075958</v>
+      </c>
+      <c r="Q12">
+        <v>0.6045737909853333</v>
+      </c>
+      <c r="R12">
+        <v>5.441164118868</v>
+      </c>
+      <c r="S12">
+        <v>0.003917178015194102</v>
+      </c>
+      <c r="T12">
+        <v>0.004586902064907071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.255631</v>
+      </c>
+      <c r="H13">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J13">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.82634733333333</v>
+      </c>
+      <c r="N13">
+        <v>65.47904199999999</v>
+      </c>
+      <c r="O13">
+        <v>0.7385693928271264</v>
+      </c>
+      <c r="P13">
+        <v>0.7851290497418185</v>
+      </c>
+      <c r="Q13">
+        <v>5.579490995167332</v>
+      </c>
+      <c r="R13">
+        <v>50.21541895650599</v>
+      </c>
+      <c r="S13">
+        <v>0.03615085501245811</v>
+      </c>
+      <c r="T13">
+        <v>0.04233160475771322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.255631</v>
+      </c>
+      <c r="H14">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J14">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.08121533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.243646</v>
+      </c>
+      <c r="O14">
+        <v>0.002748199619120238</v>
+      </c>
+      <c r="P14">
+        <v>0.002921447025040396</v>
+      </c>
+      <c r="Q14">
+        <v>0.02076115687533333</v>
+      </c>
+      <c r="R14">
+        <v>0.186850411878</v>
+      </c>
+      <c r="S14">
+        <v>0.0001345164949170357</v>
+      </c>
+      <c r="T14">
+        <v>0.0001575149216874278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.255631</v>
+      </c>
+      <c r="H15">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J15">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02210233333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.066307</v>
+      </c>
+      <c r="O15">
+        <v>0.0007479083266091199</v>
+      </c>
+      <c r="P15">
+        <v>0.0007950567129743708</v>
+      </c>
+      <c r="Q15">
+        <v>0.005650041572333333</v>
+      </c>
+      <c r="R15">
+        <v>0.050850374151</v>
+      </c>
+      <c r="S15">
+        <v>3.660796905536676E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.286687206984016E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.255631</v>
+      </c>
+      <c r="H16">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J16">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.257505500000001</v>
+      </c>
+      <c r="N16">
+        <v>10.515011</v>
+      </c>
+      <c r="O16">
+        <v>0.1779057478385349</v>
+      </c>
+      <c r="P16">
+        <v>0.1260806563794072</v>
+      </c>
+      <c r="Q16">
+        <v>1.3439813884705</v>
+      </c>
+      <c r="R16">
+        <v>8.063888330823</v>
+      </c>
+      <c r="S16">
+        <v>0.008707976472427671</v>
+      </c>
+      <c r="T16">
+        <v>0.006797858919118074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.123881</v>
+      </c>
+      <c r="I17">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J17">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.365025333333333</v>
+      </c>
+      <c r="N17">
+        <v>7.095076</v>
+      </c>
+      <c r="O17">
+        <v>0.08002875138860945</v>
+      </c>
+      <c r="P17">
+        <v>0.08507379014075958</v>
+      </c>
+      <c r="Q17">
+        <v>0.09766056777288888</v>
+      </c>
+      <c r="R17">
+        <v>0.8789451099559999</v>
+      </c>
+      <c r="S17">
+        <v>0.0006327661482113679</v>
+      </c>
+      <c r="T17">
+        <v>0.0007409508428199931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.123881</v>
+      </c>
+      <c r="I18">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J18">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>21.82634733333333</v>
+      </c>
+      <c r="N18">
+        <v>65.47904199999999</v>
+      </c>
+      <c r="O18">
+        <v>0.7385693928271264</v>
+      </c>
+      <c r="P18">
+        <v>0.7851290497418185</v>
+      </c>
+      <c r="Q18">
+        <v>0.9012899113335554</v>
+      </c>
+      <c r="R18">
+        <v>8.111609202001999</v>
+      </c>
+      <c r="S18">
+        <v>0.005839672639857612</v>
+      </c>
+      <c r="T18">
+        <v>0.006838087619772604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.39489962583334</v>
-      </c>
-      <c r="H10">
-        <v>1.39489962583334</v>
-      </c>
-      <c r="I10">
-        <v>0.4071985327728755</v>
-      </c>
-      <c r="J10">
-        <v>0.4071985327728755</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.13344074588127</v>
-      </c>
-      <c r="N10">
-        <v>5.13344074588127</v>
-      </c>
-      <c r="O10">
-        <v>0.1806051865271428</v>
-      </c>
-      <c r="P10">
-        <v>0.1806051865271428</v>
-      </c>
-      <c r="Q10">
-        <v>7.160634575667404</v>
-      </c>
-      <c r="R10">
-        <v>7.160634575667404</v>
-      </c>
-      <c r="S10">
-        <v>0.07354216696502407</v>
-      </c>
-      <c r="T10">
-        <v>0.07354216696502407</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.123881</v>
+      </c>
+      <c r="I19">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J19">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08121533333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.243646</v>
+      </c>
+      <c r="O19">
+        <v>0.002748199619120238</v>
+      </c>
+      <c r="P19">
+        <v>0.002921447025040396</v>
+      </c>
+      <c r="Q19">
+        <v>0.003353678902888889</v>
+      </c>
+      <c r="R19">
+        <v>0.030183110126</v>
+      </c>
+      <c r="S19">
+        <v>2.17292867542373E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.54443657896998E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.123881</v>
+      </c>
+      <c r="I20">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J20">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02210233333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.066307</v>
+      </c>
+      <c r="O20">
+        <v>0.0007479083266091199</v>
+      </c>
+      <c r="P20">
+        <v>0.0007950567129743708</v>
+      </c>
+      <c r="Q20">
+        <v>0.0009126863852222223</v>
+      </c>
+      <c r="R20">
+        <v>0.008214177467000001</v>
+      </c>
+      <c r="S20">
+        <v>5.913513116624992E-06</v>
+      </c>
+      <c r="T20">
+        <v>6.924552680600644E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.123881</v>
+      </c>
+      <c r="I21">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J21">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.257505500000001</v>
+      </c>
+      <c r="N21">
+        <v>10.515011</v>
+      </c>
+      <c r="O21">
+        <v>0.1779057478385349</v>
+      </c>
+      <c r="P21">
+        <v>0.1260806563794072</v>
+      </c>
+      <c r="Q21">
+        <v>0.2171016796151667</v>
+      </c>
+      <c r="R21">
+        <v>1.302610077691</v>
+      </c>
+      <c r="S21">
+        <v>0.001406653644486013</v>
+      </c>
+      <c r="T21">
+        <v>0.001098100466113612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.4441305</v>
+      </c>
+      <c r="H22">
+        <v>2.888261</v>
+      </c>
+      <c r="I22">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J22">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.365025333333333</v>
+      </c>
+      <c r="N22">
+        <v>7.095076</v>
+      </c>
+      <c r="O22">
+        <v>0.08002875138860945</v>
+      </c>
+      <c r="P22">
+        <v>0.08507379014075958</v>
+      </c>
+      <c r="Q22">
+        <v>3.415405217139333</v>
+      </c>
+      <c r="R22">
+        <v>20.492431302836</v>
+      </c>
+      <c r="S22">
+        <v>0.02212922628973507</v>
+      </c>
+      <c r="T22">
+        <v>0.01727512227245595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.4441305</v>
+      </c>
+      <c r="H23">
+        <v>2.888261</v>
+      </c>
+      <c r="I23">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J23">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>21.82634733333333</v>
+      </c>
+      <c r="N23">
+        <v>65.47904199999999</v>
+      </c>
+      <c r="O23">
+        <v>0.7385693928271264</v>
+      </c>
+      <c r="P23">
+        <v>0.7851290497418185</v>
+      </c>
+      <c r="Q23">
+        <v>31.52009388766033</v>
+      </c>
+      <c r="R23">
+        <v>189.120563325962</v>
+      </c>
+      <c r="S23">
+        <v>0.2042262179648346</v>
+      </c>
+      <c r="T23">
+        <v>0.1594286596554116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.4441305</v>
+      </c>
+      <c r="H24">
+        <v>2.888261</v>
+      </c>
+      <c r="I24">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J24">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.08121533333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.243646</v>
+      </c>
+      <c r="O24">
+        <v>0.002748199619120238</v>
+      </c>
+      <c r="P24">
+        <v>0.002921447025040396</v>
+      </c>
+      <c r="Q24">
+        <v>0.1172855399343333</v>
+      </c>
+      <c r="R24">
+        <v>0.703713239606</v>
+      </c>
+      <c r="S24">
+        <v>0.0007599210309500267</v>
+      </c>
+      <c r="T24">
+        <v>0.0005932303531625036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.4441305</v>
+      </c>
+      <c r="H25">
+        <v>2.888261</v>
+      </c>
+      <c r="I25">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J25">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.02210233333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.066307</v>
+      </c>
+      <c r="O25">
+        <v>0.0007479083266091199</v>
+      </c>
+      <c r="P25">
+        <v>0.0007950567129743708</v>
+      </c>
+      <c r="Q25">
+        <v>0.03191865368783334</v>
+      </c>
+      <c r="R25">
+        <v>0.191511922127</v>
+      </c>
+      <c r="S25">
+        <v>0.000206808582119975</v>
+      </c>
+      <c r="T25">
+        <v>0.0001614445754379146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.4441305</v>
+      </c>
+      <c r="H26">
+        <v>2.888261</v>
+      </c>
+      <c r="I26">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J26">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.257505500000001</v>
+      </c>
+      <c r="N26">
+        <v>10.515011</v>
+      </c>
+      <c r="O26">
+        <v>0.1779057478385349</v>
+      </c>
+      <c r="P26">
+        <v>0.1260806563794072</v>
+      </c>
+      <c r="Q26">
+        <v>7.592524046467751</v>
+      </c>
+      <c r="R26">
+        <v>30.370096185871</v>
+      </c>
+      <c r="S26">
+        <v>0.04919377703453497</v>
+      </c>
+      <c r="T26">
+        <v>0.02560199506266309</v>
       </c>
     </row>
   </sheetData>
